--- a/ExcelTools/Test_Files/RangeParseTest.xlsx
+++ b/ExcelTools/Test_Files/RangeParseTest.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ginas_source\Excel\CSharpTest2\Test_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ginas_source\Excel\FDA\live\ExcelTools\Test_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18372" windowHeight="6852" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data Two" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>aspirin</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>Range E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> some data   </t>
   </si>
 </sst>
 </file>
@@ -370,24 +374,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -401,25 +405,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
